--- a/File_3.xlsx
+++ b/File_3.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_3" r:id="rId3" sheetId="1"/>
+    <sheet name="sheet_5" r:id="rId3" sheetId="1"/>
+    <sheet name="sheet_6" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -23,7 +24,7 @@
     <t>Class</t>
   </si>
   <si>
-    <t>fanshicai_3</t>
+    <t>fanshicai2</t>
   </si>
   <si>
     <t>3</t>
@@ -32,7 +33,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>shi_3</t>
+    <t>shi</t>
   </si>
   <si>
     <t>2</t>
@@ -102,13 +103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>
@@ -135,14 +136,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
     </row>

--- a/File_3.xlsx
+++ b/File_3.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_5" r:id="rId3" sheetId="1"/>
-    <sheet name="sheet_6" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -21,25 +20,16 @@
     <t>age</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>fanshicai2</t>
+    <t>shicai3</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>shi</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -103,15 +93,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.31640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,62 +110,24 @@
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>